--- a/files/Matières/Emplois du temps/T/week-end du 06 au 07 02 2021.xlsx
+++ b/files/Matières/Emplois du temps/T/week-end du 06 au 07 02 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry PC\Documents\001 Github prog Sharing\Backup-of-matiere\files\Matières\Emplois du temps\T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72752857-E8C6-41C7-B133-A1FDD0383AF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30AAA2E-33C5-4963-8930-1F027DBB4618}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{6215B361-6280-4DA0-A960-CAA499E36344}"/>
   </bookViews>
@@ -81,12 +81,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,16 +107,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,693 +438,672 @@
   <dimension ref="B2:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:H31"/>
+      <selection activeCell="C28" sqref="C28:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="10.6640625" style="2"/>
+    <col min="1" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.30208333333333331</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.3125</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.32291666666666669</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>0.34375</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>0.35416666666666602</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>0.36458333333333298</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>0.375</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>0.38541666666666602</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>0.39583333333333298</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>0.40625</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>0.42708333333333298</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>0.4375</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>0.44791666666666602</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>0.46875</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>0.47916666666666602</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>0.48958333333333298</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>0.5</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>0.51041666666666596</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>0.52083333333333304</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>0.531249999999999</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>0.55208333333333304</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>0.562499999999999</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>0.57291666666666596</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>0.593749999999999</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>0.60416666666666596</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>0.61458333333333304</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>0.624999999999999</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>0.63541666666666596</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>0.64583333333333204</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>0.656249999999999</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>0.67708333333333204</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>0.687499999999999</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>0.69791666666666596</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>0.70833333333333204</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>0.718749999999999</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>0.72916666666666496</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>0.73958333333333204</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>0.749999999999999</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>0.76041666666666496</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>0.77083333333333204</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>0.781249999999999</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>0.79166666666666496</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>0.80208333333333204</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>0.812499999999998</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>0.82291666666666496</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>0.83333333333333204</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>0.843749999999998</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>0.85416666666666496</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>0.86458333333333204</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>0.874999999999998</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F36:H39"/>
-    <mergeCell ref="F40:H43"/>
-    <mergeCell ref="F44:H47"/>
-    <mergeCell ref="F48:H51"/>
-    <mergeCell ref="F52:H55"/>
-    <mergeCell ref="F56:H59"/>
-    <mergeCell ref="C40:E43"/>
-    <mergeCell ref="C44:E47"/>
-    <mergeCell ref="C48:E51"/>
-    <mergeCell ref="C52:E55"/>
-    <mergeCell ref="C56:E59"/>
-    <mergeCell ref="F16:H19"/>
-    <mergeCell ref="F20:H23"/>
-    <mergeCell ref="F24:H27"/>
-    <mergeCell ref="F28:H31"/>
-    <mergeCell ref="F32:H35"/>
-    <mergeCell ref="C16:E19"/>
-    <mergeCell ref="C28:E31"/>
-    <mergeCell ref="C32:E35"/>
-    <mergeCell ref="C36:E39"/>
-    <mergeCell ref="C20:E27"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="C3:E15"/>
@@ -1123,6 +1111,27 @@
     <mergeCell ref="F5:H6"/>
     <mergeCell ref="F7:H9"/>
     <mergeCell ref="F10:H15"/>
+    <mergeCell ref="C16:E19"/>
+    <mergeCell ref="C28:E31"/>
+    <mergeCell ref="C32:E35"/>
+    <mergeCell ref="C36:E39"/>
+    <mergeCell ref="C20:E27"/>
+    <mergeCell ref="F16:H19"/>
+    <mergeCell ref="F20:H23"/>
+    <mergeCell ref="F24:H27"/>
+    <mergeCell ref="F28:H31"/>
+    <mergeCell ref="F32:H35"/>
+    <mergeCell ref="F56:H59"/>
+    <mergeCell ref="C40:E43"/>
+    <mergeCell ref="C44:E47"/>
+    <mergeCell ref="C48:E51"/>
+    <mergeCell ref="C52:E55"/>
+    <mergeCell ref="C56:E59"/>
+    <mergeCell ref="F36:H39"/>
+    <mergeCell ref="F40:H43"/>
+    <mergeCell ref="F44:H47"/>
+    <mergeCell ref="F48:H51"/>
+    <mergeCell ref="F52:H55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
